--- a/artifact/data/rdbms-03.data.xlsx
+++ b/artifact/data/rdbms-03.data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10130"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="-21160" windowWidth="33600" windowHeight="10280" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="Inspect1" sheetId="13" r:id="rId2"/>
-    <sheet name="Compare1" sheetId="10" r:id="rId3"/>
-    <sheet name="Compare2" sheetId="11" r:id="rId4"/>
-    <sheet name="Compare3" sheetId="12" r:id="rId5"/>
+    <sheet name="Inspect2" sheetId="14" r:id="rId3"/>
+    <sheet name="Compare1" sheetId="10" r:id="rId4"/>
+    <sheet name="Compare2" sheetId="11" r:id="rId5"/>
+    <sheet name="Compare3" sheetId="12" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>true</t>
   </si>
@@ -205,6 +206,27 @@
 	C.SUPPORTREPID = E.EMPLOYEEID AND
 	C.COUNTRY in (${target countries})
 ORDER BY REP_NAME, CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>SELECT
+	C.COMPANY                        AS CUSTOMER_COMPANY,
+	C.FIRSTNAME || ' ' || C.LASTNAME AS CUSTOMER_NAME,
+	C.EMAIL                          AS CUSTOMER_EMAIL,
+	E.TITLE                          AS REP_TITLE,
+	E.FIRSTNAME || ' ' || E.LASTNAME AS REP_NAME,
+	E.EMAIL                          AS REP_EMAIL,
+	C.COUNTRY
+FROM CUSTOMERS C, EMPLOYEES E
+WHERE
+	C.SUPPORTREPID = E.EMPLOYEEID AND
+	C.COUNTRY in ('Argentina','Brazil','Canada')
+ORDER BY REP_NAME, CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>expected columns</t>
+  </si>
+  <si>
+    <t>CUSTOMER_COMPANY,CUSTOMER_NAME,CUSTOMER_EMAIL,REP_TITLE,REP_NAME,REP_EMAIL,Country</t>
   </si>
 </sst>
 </file>
@@ -425,7 +447,128 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1763,37 +1906,37 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="63" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="72" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="71" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="61" priority="7" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7 B13:B1048576">
-    <cfRule type="expression" dxfId="60" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="59" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="9">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="3" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="57" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="4">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="56" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="55" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="2">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1807,7 +1950,7 @@
   <dimension ref="A1:AAA18"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1830,12 +1973,8 @@
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="12"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7"/>
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
@@ -1926,37 +2065,37 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="54" priority="8" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="63" priority="8" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="62" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="52" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B1048576 B1">
-    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="50" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="12">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="49" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="48" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="7">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="46" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="5">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1966,6 +2105,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7EEA-3E30-584D-BC54-936079BDEFE2}">
+  <dimension ref="A1:AAA18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703" ht="221">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="HA2" s="4"/>
+      <c r="AAA2" s="5"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="7"/>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="7"/>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="8" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B1048576 B1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="9">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(B6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2324131A-6C42-CF44-87EB-42CC29854B64}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
@@ -2145,67 +2447,67 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576">
-    <cfRule type="beginsWith" dxfId="45" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="54" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A8,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="53" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A8,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="43" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 B13:B1048576">
-    <cfRule type="expression" dxfId="42" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="41" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="17">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="39" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="12">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="38" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="37" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="beginsWith" dxfId="36" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="45" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="35" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="44" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="32" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="31" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="40" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="39" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2214,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59855CE7-C0CF-7D40-8A1C-F499D4658C7F}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
@@ -2394,67 +2696,67 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576">
-    <cfRule type="beginsWith" dxfId="28" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="37" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A8,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="36" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A8,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="26" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 B13:B1048576">
-    <cfRule type="expression" dxfId="25" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="17">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="12">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="beginsWith" dxfId="19" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="28" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="27" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2463,11 +2765,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDECD5A-8EA6-CD47-B8BF-7F98522D5D67}">
   <dimension ref="A1:AAA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2603,48 +2905,48 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A4:A1048576 A1:A2">
-    <cfRule type="beginsWith" dxfId="11" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="20" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="19" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B1048576 B1:B3">
-    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="17">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="12">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/rdbms-03.data.xlsx
+++ b/artifact/data/rdbms-03.data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10206"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="-21160" windowWidth="33600" windowHeight="10280" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="440" windowWidth="40960" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>true</t>
   </si>
@@ -450,6 +450,43 @@
   <dxfs count="73">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -636,6 +673,43 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -692,80 +766,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -831,6 +831,43 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -859,6 +896,43 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -910,80 +984,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1706,7 +1706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:AAA18"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1973,8 +1973,12 @@
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="12"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
@@ -2105,17 +2109,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7EEA-3E30-584D-BC54-936079BDEFE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE43386-653F-C14B-8E77-56634107147F}">
   <dimension ref="A1:AAA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="67.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
@@ -2228,37 +2232,37 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="54" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="53" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B1048576 B1">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="9">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="4">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="2">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2447,67 +2451,67 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576">
-    <cfRule type="beginsWith" dxfId="54" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="45" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A8,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="44" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A8,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="52" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 B13:B1048576">
-    <cfRule type="expression" dxfId="51" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="50" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="17">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="48" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="12">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="47" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="46" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="beginsWith" dxfId="45" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="36" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="35" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="43" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="41" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="40" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="31" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="30" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2520,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59855CE7-C0CF-7D40-8A1C-F499D4658C7F}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2696,67 +2700,67 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576">
-    <cfRule type="beginsWith" dxfId="37" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="28" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A8,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="27" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A8,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="35" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 B13:B1048576">
-    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="33" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="17">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="31" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="12">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="beginsWith" dxfId="28" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="19" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="18" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="26" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2905,48 +2909,48 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A4:A1048576 A1:A2">
-    <cfRule type="beginsWith" dxfId="20" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="11" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="10" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B1048576 B1:B3">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="16" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="17">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/rdbms-03.data.xlsx
+++ b/artifact/data/rdbms-03.data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10220"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EFBCE2-E123-6641-9C2C-74B323E4786D}" xr6:coauthVersionLast="30" xr6:coauthVersionMax="30" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="440" windowWidth="40960" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="10240" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +36,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>true</t>
   </si>
@@ -185,9 +186,6 @@
 FROM ALBUMS, ARTISTS 
 WHERE ALBUMS.ARTISTID = ARTISTS.ARTISTID AND (TITLE LIKE 'A%') 
 ORDER BY 1</t>
-  </si>
-  <si>
-    <t>sentry.inspectOnPause</t>
   </si>
   <si>
     <t>customers SQL</t>
@@ -1706,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1950,7 +1948,7 @@
   <dimension ref="A1:AAA18"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1964,21 +1962,17 @@
   <sheetData>
     <row r="1" spans="1:703" ht="221">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="12"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7"/>
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
@@ -2127,20 +2121,20 @@
   <sheetData>
     <row r="1" spans="1:703" ht="221">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="7"/>
       <c r="HA2" s="4"/>
@@ -2276,7 +2270,7 @@
   <dimension ref="A1:AAA24"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2524,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59855CE7-C0CF-7D40-8A1C-F499D4658C7F}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2773,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDECD5A-8EA6-CD47-B8BF-7F98522D5D67}">
   <dimension ref="A1:AAA20"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2807,12 +2801,8 @@
       <c r="AAA2" s="5"/>
     </row>
     <row r="3" spans="1:703">
-      <c r="A3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="17"/>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>

--- a/artifact/data/rdbms-03.data.xlsx
+++ b/artifact/data/rdbms-03.data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF9590-A96A-7047-92FE-A3286D6E6C74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AC842C-B373-DC49-BDB5-9B5A56990B82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="10240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="440" windowWidth="20480" windowHeight="25160" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -14,9 +14,11 @@
     <sheet name="Compare1" sheetId="10" r:id="rId4"/>
     <sheet name="Compare2" sheetId="11" r:id="rId5"/>
     <sheet name="Compare3" sheetId="12" r:id="rId6"/>
+    <sheet name="Compare4" sheetId="15" r:id="rId7"/>
+    <sheet name="Compare5" sheetId="16" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -36,10 +38,15 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>true</t>
   </si>
@@ -226,12 +233,121 @@
       AND (TITLE LIKE 'A %' AND ARTISTS.NAME LIKE 'I%')
 ORDER BY 1;</t>
   </si>
+  <si>
+    <t>SELECT DISTINCT COUNTRY FROM CUSTOMERS ORDER BY 1;</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.expected.identity</t>
+  </si>
+  <si>
+    <t>invoice id</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.actual.identity</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.invoice id</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.track name</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.composer</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.unit price</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.quantity</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.invoice date</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.billing address</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.customer name</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.output.display</t>
+  </si>
+  <si>
+    <t>track name</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>total price</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.match.total price</t>
+  </si>
+  <si>
+    <t>invoice date</t>
+  </si>
+  <si>
+    <t>customer name</t>
+  </si>
+  <si>
+    <t>composer</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.output.MISMATCHED</t>
+  </si>
+  <si>
+    <t>Mismatch Found</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.output.EXPECTED</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.output.ACTUAL</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>billing address</t>
+  </si>
+  <si>
+    <t>SELECT
+	II.INVOICELINEID                 AS "invoice id",
+	T.NAME                           AS "track name",
+	T.COMPOSER                       AS "composer",
+	T.BYTES                          AS "size",
+	T.UNITPRICE                      AS "unit price",
+	II.QUANTITY                      AS "quantity",
+	(T.UNITPRICE * II.QUANTITY)      AS "total price",
+	INVOICEDATE                      AS "invoice date",
+	BILLINGADDRESS || ', ' || BILLINGCITY || ' ' ||
+	BILLINGSTATE || ' ' || BILLINGCOUNTRY || ' ' ||
+	BILLINGPOSTALCODE                AS "billing address",
+	C.FIRSTNAME || ' ' || C.LASTNAME AS "customer name"
+FROM TRACKS T, INVOICE_ITEMS II, INVOICES I, CUSTOMERS C, EMPLOYEES E
+WHERE T.TRACKID = II.TRACKID AND
+      II.INVOICEID = I.INVOICEID AND
+      I.CUSTOMERID = C.CUSTOMERID AND
+      C.FIRSTNAME = E.FIRSTNAME AND 
+      T.ALBUMID &gt; 104
+ORDER BY "invoice date", "invoice id" desc, "track name"</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>track name,composer,customer name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +398,13 @@
       <sz val="12"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,7 +487,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -435,6 +558,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -445,7 +573,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="97">
     <dxf>
       <font>
         <b/>
@@ -576,31 +704,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -766,229 +869,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1044,46 +924,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1435,31 +1275,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1530,6 +1345,31 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1777,31 +1617,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1893,127 +1708,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2140,102 +1834,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -2256,127 +1854,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2671,7 +2148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -11953,37 +11432,37 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="138" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="96" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="137" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="95" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="145" priority="7" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="94" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7 B13:B1048576">
-    <cfRule type="expression" dxfId="144" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="143" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="92" priority="9">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="142" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="3" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="141" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="90" priority="4">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="140" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="139" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="2">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11996,7 +11475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D07624-DB63-6749-B812-CA96E6C036BA}">
   <dimension ref="A1:AAA18"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="137" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -12809,37 +12290,37 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="120" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="87" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="119" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="86" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="127" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B1048576 B1">
-    <cfRule type="expression" dxfId="126" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="125" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="12">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="124" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="6" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="123" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="7">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="122" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="121" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="5">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12852,7 +12333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE43386-653F-C14B-8E77-56634107147F}">
   <dimension ref="A1:AAA18"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -14367,37 +13850,37 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="102" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="78" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="101" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="77" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="109" priority="7" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B1048576 B1">
-    <cfRule type="expression" dxfId="108" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="107" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="9">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="106" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="105" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="4">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="104" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="103" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="2">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14410,12 +13893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2324131A-6C42-CF44-87EB-42CC29854B64}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="130.5" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="134.5" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
@@ -14426,7 +13911,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -18675,7 +18160,7 @@
       <c r="ZZ6"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703" ht="153">
+    <row r="7" spans="1:703" ht="136">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -19477,67 +18962,67 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576">
-    <cfRule type="beginsWith" dxfId="91" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="69" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A8,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="68" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A8,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="89" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 B13:B1048576">
-    <cfRule type="expression" dxfId="88" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="87" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="17">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="86" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="85" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="12">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="84" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="83" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="beginsWith" dxfId="76" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="60" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="59" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="82" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="81" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="80" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="79" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="55" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="54" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="77" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19550,7 +19035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59855CE7-C0CF-7D40-8A1C-F499D4658C7F}">
   <dimension ref="A1:AAA24"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -24526,14 +24013,14 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7"/>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="7"/>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
@@ -24617,67 +24104,67 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576">
-    <cfRule type="beginsWith" dxfId="57" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="52" priority="13" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A8,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="51" priority="14" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A8,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="55" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 B13:B1048576">
-    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="53" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="17">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="52" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="51" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="12">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="50" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="49" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="beginsWith" dxfId="42" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="43" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="42" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="47" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="46" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="45" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="38" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="37" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24690,7 +24177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDECD5A-8EA6-CD47-B8BF-7F98522D5D67}">
   <dimension ref="A1:AAA20"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -26218,48 +25707,3276 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A4:A1048576 A1:A2">
-    <cfRule type="beginsWith" dxfId="13" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="35" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="34" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B1048576 B1:B3">
-    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="17">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="30" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="29" priority="12">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="27" priority="10">
+      <formula>LEN(TRIM(B6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="24" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6DA033-FD67-5C4C-8182-E65278DB7D6B}">
+  <dimension ref="A1:AAA20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703" ht="86" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+      <c r="OW1"/>
+      <c r="OX1"/>
+      <c r="OY1"/>
+      <c r="OZ1"/>
+      <c r="PA1"/>
+      <c r="PB1"/>
+      <c r="PC1"/>
+      <c r="PD1"/>
+      <c r="PE1"/>
+      <c r="PF1"/>
+      <c r="PG1"/>
+      <c r="PH1"/>
+      <c r="PI1"/>
+      <c r="PJ1"/>
+      <c r="PK1"/>
+      <c r="PL1"/>
+      <c r="PM1"/>
+      <c r="PN1"/>
+      <c r="PO1"/>
+      <c r="PP1"/>
+      <c r="PQ1"/>
+      <c r="PR1"/>
+      <c r="PS1"/>
+      <c r="PT1"/>
+      <c r="PU1"/>
+      <c r="PV1"/>
+      <c r="PW1"/>
+      <c r="PX1"/>
+      <c r="PY1"/>
+      <c r="PZ1"/>
+      <c r="QA1"/>
+      <c r="QB1"/>
+      <c r="QC1"/>
+      <c r="QD1"/>
+      <c r="QE1"/>
+      <c r="QF1"/>
+      <c r="QG1"/>
+      <c r="QH1"/>
+      <c r="QI1"/>
+      <c r="QJ1"/>
+      <c r="QK1"/>
+      <c r="QL1"/>
+      <c r="QM1"/>
+      <c r="QN1"/>
+      <c r="QO1"/>
+      <c r="QP1"/>
+      <c r="QQ1"/>
+      <c r="QR1"/>
+      <c r="QS1"/>
+      <c r="QT1"/>
+      <c r="QU1"/>
+      <c r="QV1"/>
+      <c r="QW1"/>
+      <c r="QX1"/>
+      <c r="QY1"/>
+      <c r="QZ1"/>
+      <c r="RA1"/>
+      <c r="RB1"/>
+      <c r="RC1"/>
+      <c r="RD1"/>
+      <c r="RE1"/>
+      <c r="RF1"/>
+      <c r="RG1"/>
+      <c r="RH1"/>
+      <c r="RI1"/>
+      <c r="RJ1"/>
+      <c r="RK1"/>
+      <c r="RL1"/>
+      <c r="RM1"/>
+      <c r="RN1"/>
+      <c r="RO1"/>
+      <c r="RP1"/>
+      <c r="RQ1"/>
+      <c r="RR1"/>
+      <c r="RS1"/>
+      <c r="RT1"/>
+      <c r="RU1"/>
+      <c r="RV1"/>
+      <c r="RW1"/>
+      <c r="RX1"/>
+      <c r="RY1"/>
+      <c r="RZ1"/>
+      <c r="SA1"/>
+      <c r="SB1"/>
+      <c r="SC1"/>
+      <c r="SD1"/>
+      <c r="SE1"/>
+      <c r="SF1"/>
+      <c r="SG1"/>
+      <c r="SH1"/>
+      <c r="SI1"/>
+      <c r="SJ1"/>
+      <c r="SK1"/>
+      <c r="SL1"/>
+      <c r="SM1"/>
+      <c r="SN1"/>
+      <c r="SO1"/>
+      <c r="SP1"/>
+      <c r="SQ1"/>
+      <c r="SR1"/>
+      <c r="SS1"/>
+      <c r="ST1"/>
+      <c r="SU1"/>
+      <c r="SV1"/>
+      <c r="SW1"/>
+      <c r="SX1"/>
+      <c r="SY1"/>
+      <c r="SZ1"/>
+      <c r="TA1"/>
+      <c r="TB1"/>
+      <c r="TC1"/>
+      <c r="TD1"/>
+      <c r="TE1"/>
+      <c r="TF1"/>
+      <c r="TG1"/>
+      <c r="TH1"/>
+      <c r="TI1"/>
+      <c r="TJ1"/>
+      <c r="TK1"/>
+      <c r="TL1"/>
+      <c r="TM1"/>
+      <c r="TN1"/>
+      <c r="TO1"/>
+      <c r="TP1"/>
+      <c r="TQ1"/>
+      <c r="TR1"/>
+      <c r="TS1"/>
+      <c r="TT1"/>
+      <c r="TU1"/>
+      <c r="TV1"/>
+      <c r="TW1"/>
+      <c r="TX1"/>
+      <c r="TY1"/>
+      <c r="TZ1"/>
+      <c r="UA1"/>
+      <c r="UB1"/>
+      <c r="UC1"/>
+      <c r="UD1"/>
+      <c r="UE1"/>
+      <c r="UF1"/>
+      <c r="UG1"/>
+      <c r="UH1"/>
+      <c r="UI1"/>
+      <c r="UJ1"/>
+      <c r="UK1"/>
+      <c r="UL1"/>
+      <c r="UM1"/>
+      <c r="UN1"/>
+      <c r="UO1"/>
+      <c r="UP1"/>
+      <c r="UQ1"/>
+      <c r="UR1"/>
+      <c r="US1"/>
+      <c r="UT1"/>
+      <c r="UU1"/>
+      <c r="UV1"/>
+      <c r="UW1"/>
+      <c r="UX1"/>
+      <c r="UY1"/>
+      <c r="UZ1"/>
+      <c r="VA1"/>
+      <c r="VB1"/>
+      <c r="VC1"/>
+      <c r="VD1"/>
+      <c r="VE1"/>
+      <c r="VF1"/>
+      <c r="VG1"/>
+      <c r="VH1"/>
+      <c r="VI1"/>
+      <c r="VJ1"/>
+      <c r="VK1"/>
+      <c r="VL1"/>
+      <c r="VM1"/>
+      <c r="VN1"/>
+      <c r="VO1"/>
+      <c r="VP1"/>
+      <c r="VQ1"/>
+      <c r="VR1"/>
+      <c r="VS1"/>
+      <c r="VT1"/>
+      <c r="VU1"/>
+      <c r="VV1"/>
+      <c r="VW1"/>
+      <c r="VX1"/>
+      <c r="VY1"/>
+      <c r="VZ1"/>
+      <c r="WA1"/>
+      <c r="WB1"/>
+      <c r="WC1"/>
+      <c r="WD1"/>
+      <c r="WE1"/>
+      <c r="WF1"/>
+      <c r="WG1"/>
+      <c r="WH1"/>
+      <c r="WI1"/>
+      <c r="WJ1"/>
+      <c r="WK1"/>
+      <c r="WL1"/>
+      <c r="WM1"/>
+      <c r="WN1"/>
+      <c r="WO1"/>
+      <c r="WP1"/>
+      <c r="WQ1"/>
+      <c r="WR1"/>
+      <c r="WS1"/>
+      <c r="WT1"/>
+      <c r="WU1"/>
+      <c r="WV1"/>
+      <c r="WW1"/>
+      <c r="WX1"/>
+      <c r="WY1"/>
+      <c r="WZ1"/>
+      <c r="XA1"/>
+      <c r="XB1"/>
+      <c r="XC1"/>
+      <c r="XD1"/>
+      <c r="XE1"/>
+      <c r="XF1"/>
+      <c r="XG1"/>
+      <c r="XH1"/>
+      <c r="XI1"/>
+      <c r="XJ1"/>
+      <c r="XK1"/>
+      <c r="XL1"/>
+      <c r="XM1"/>
+      <c r="XN1"/>
+      <c r="XO1"/>
+      <c r="XP1"/>
+      <c r="XQ1"/>
+      <c r="XR1"/>
+      <c r="XS1"/>
+      <c r="XT1"/>
+      <c r="XU1"/>
+      <c r="XV1"/>
+      <c r="XW1"/>
+      <c r="XX1"/>
+      <c r="XY1"/>
+      <c r="XZ1"/>
+      <c r="YA1"/>
+      <c r="YB1"/>
+      <c r="YC1"/>
+      <c r="YD1"/>
+      <c r="YE1"/>
+      <c r="YF1"/>
+      <c r="YG1"/>
+      <c r="YH1"/>
+      <c r="YI1"/>
+      <c r="YJ1"/>
+      <c r="YK1"/>
+      <c r="YL1"/>
+      <c r="YM1"/>
+      <c r="YN1"/>
+      <c r="YO1"/>
+      <c r="YP1"/>
+      <c r="YQ1"/>
+      <c r="YR1"/>
+      <c r="YS1"/>
+      <c r="YT1"/>
+      <c r="YU1"/>
+      <c r="YV1"/>
+      <c r="YW1"/>
+      <c r="YX1"/>
+      <c r="YY1"/>
+      <c r="YZ1"/>
+      <c r="ZA1"/>
+      <c r="ZB1"/>
+      <c r="ZC1"/>
+      <c r="ZD1"/>
+      <c r="ZE1"/>
+      <c r="ZF1"/>
+      <c r="ZG1"/>
+      <c r="ZH1"/>
+      <c r="ZI1"/>
+      <c r="ZJ1"/>
+      <c r="ZK1"/>
+      <c r="ZL1"/>
+      <c r="ZM1"/>
+      <c r="ZN1"/>
+      <c r="ZO1"/>
+      <c r="ZP1"/>
+      <c r="ZQ1"/>
+      <c r="ZR1"/>
+      <c r="ZS1"/>
+      <c r="ZT1"/>
+      <c r="ZU1"/>
+      <c r="ZV1"/>
+      <c r="ZW1"/>
+      <c r="ZX1"/>
+      <c r="ZY1"/>
+      <c r="ZZ1"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2" s="4"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
+      <c r="UN2"/>
+      <c r="UO2"/>
+      <c r="UP2"/>
+      <c r="UQ2"/>
+      <c r="UR2"/>
+      <c r="US2"/>
+      <c r="UT2"/>
+      <c r="UU2"/>
+      <c r="UV2"/>
+      <c r="UW2"/>
+      <c r="UX2"/>
+      <c r="UY2"/>
+      <c r="UZ2"/>
+      <c r="VA2"/>
+      <c r="VB2"/>
+      <c r="VC2"/>
+      <c r="VD2"/>
+      <c r="VE2"/>
+      <c r="VF2"/>
+      <c r="VG2"/>
+      <c r="VH2"/>
+      <c r="VI2"/>
+      <c r="VJ2"/>
+      <c r="VK2"/>
+      <c r="VL2"/>
+      <c r="VM2"/>
+      <c r="VN2"/>
+      <c r="VO2"/>
+      <c r="VP2"/>
+      <c r="VQ2"/>
+      <c r="VR2"/>
+      <c r="VS2"/>
+      <c r="VT2"/>
+      <c r="VU2"/>
+      <c r="VV2"/>
+      <c r="VW2"/>
+      <c r="VX2"/>
+      <c r="VY2"/>
+      <c r="VZ2"/>
+      <c r="WA2"/>
+      <c r="WB2"/>
+      <c r="WC2"/>
+      <c r="WD2"/>
+      <c r="WE2"/>
+      <c r="WF2"/>
+      <c r="WG2"/>
+      <c r="WH2"/>
+      <c r="WI2"/>
+      <c r="WJ2"/>
+      <c r="WK2"/>
+      <c r="WL2"/>
+      <c r="WM2"/>
+      <c r="WN2"/>
+      <c r="WO2"/>
+      <c r="WP2"/>
+      <c r="WQ2"/>
+      <c r="WR2"/>
+      <c r="WS2"/>
+      <c r="WT2"/>
+      <c r="WU2"/>
+      <c r="WV2"/>
+      <c r="WW2"/>
+      <c r="WX2"/>
+      <c r="WY2"/>
+      <c r="WZ2"/>
+      <c r="XA2"/>
+      <c r="XB2"/>
+      <c r="XC2"/>
+      <c r="XD2"/>
+      <c r="XE2"/>
+      <c r="XF2"/>
+      <c r="XG2"/>
+      <c r="XH2"/>
+      <c r="XI2"/>
+      <c r="XJ2"/>
+      <c r="XK2"/>
+      <c r="XL2"/>
+      <c r="XM2"/>
+      <c r="XN2"/>
+      <c r="XO2"/>
+      <c r="XP2"/>
+      <c r="XQ2"/>
+      <c r="XR2"/>
+      <c r="XS2"/>
+      <c r="XT2"/>
+      <c r="XU2"/>
+      <c r="XV2"/>
+      <c r="XW2"/>
+      <c r="XX2"/>
+      <c r="XY2"/>
+      <c r="XZ2"/>
+      <c r="YA2"/>
+      <c r="YB2"/>
+      <c r="YC2"/>
+      <c r="YD2"/>
+      <c r="YE2"/>
+      <c r="YF2"/>
+      <c r="YG2"/>
+      <c r="YH2"/>
+      <c r="YI2"/>
+      <c r="YJ2"/>
+      <c r="YK2"/>
+      <c r="YL2"/>
+      <c r="YM2"/>
+      <c r="YN2"/>
+      <c r="YO2"/>
+      <c r="YP2"/>
+      <c r="YQ2"/>
+      <c r="YR2"/>
+      <c r="YS2"/>
+      <c r="YT2"/>
+      <c r="YU2"/>
+      <c r="YV2"/>
+      <c r="YW2"/>
+      <c r="YX2"/>
+      <c r="YY2"/>
+      <c r="YZ2"/>
+      <c r="ZA2"/>
+      <c r="ZB2"/>
+      <c r="ZC2"/>
+      <c r="ZD2"/>
+      <c r="ZE2"/>
+      <c r="ZF2"/>
+      <c r="ZG2"/>
+      <c r="ZH2"/>
+      <c r="ZI2"/>
+      <c r="ZJ2"/>
+      <c r="ZK2"/>
+      <c r="ZL2"/>
+      <c r="ZM2"/>
+      <c r="ZN2"/>
+      <c r="ZO2"/>
+      <c r="ZP2"/>
+      <c r="ZQ2"/>
+      <c r="ZR2"/>
+      <c r="ZS2"/>
+      <c r="ZT2"/>
+      <c r="ZU2"/>
+      <c r="ZV2"/>
+      <c r="ZW2"/>
+      <c r="ZX2"/>
+      <c r="ZY2"/>
+      <c r="ZZ2"/>
+      <c r="AAA2" s="5"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="8"/>
+      <c r="B3" s="17"/>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="7"/>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="7"/>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="7"/>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A4:A1048576 A1:A2">
+    <cfRule type="beginsWith" dxfId="23" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="22" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="21" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B1048576 B1:B3">
     <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="19" priority="12">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="7">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="16" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8414381-7D2F-7247-A5D2-C8E47A859359}">
+  <dimension ref="A1:AAA20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="38" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="83.1640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703" ht="357">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+      <c r="OW1"/>
+      <c r="OX1"/>
+      <c r="OY1"/>
+      <c r="OZ1"/>
+      <c r="PA1"/>
+      <c r="PB1"/>
+      <c r="PC1"/>
+      <c r="PD1"/>
+      <c r="PE1"/>
+      <c r="PF1"/>
+      <c r="PG1"/>
+      <c r="PH1"/>
+      <c r="PI1"/>
+      <c r="PJ1"/>
+      <c r="PK1"/>
+      <c r="PL1"/>
+      <c r="PM1"/>
+      <c r="PN1"/>
+      <c r="PO1"/>
+      <c r="PP1"/>
+      <c r="PQ1"/>
+      <c r="PR1"/>
+      <c r="PS1"/>
+      <c r="PT1"/>
+      <c r="PU1"/>
+      <c r="PV1"/>
+      <c r="PW1"/>
+      <c r="PX1"/>
+      <c r="PY1"/>
+      <c r="PZ1"/>
+      <c r="QA1"/>
+      <c r="QB1"/>
+      <c r="QC1"/>
+      <c r="QD1"/>
+      <c r="QE1"/>
+      <c r="QF1"/>
+      <c r="QG1"/>
+      <c r="QH1"/>
+      <c r="QI1"/>
+      <c r="QJ1"/>
+      <c r="QK1"/>
+      <c r="QL1"/>
+      <c r="QM1"/>
+      <c r="QN1"/>
+      <c r="QO1"/>
+      <c r="QP1"/>
+      <c r="QQ1"/>
+      <c r="QR1"/>
+      <c r="QS1"/>
+      <c r="QT1"/>
+      <c r="QU1"/>
+      <c r="QV1"/>
+      <c r="QW1"/>
+      <c r="QX1"/>
+      <c r="QY1"/>
+      <c r="QZ1"/>
+      <c r="RA1"/>
+      <c r="RB1"/>
+      <c r="RC1"/>
+      <c r="RD1"/>
+      <c r="RE1"/>
+      <c r="RF1"/>
+      <c r="RG1"/>
+      <c r="RH1"/>
+      <c r="RI1"/>
+      <c r="RJ1"/>
+      <c r="RK1"/>
+      <c r="RL1"/>
+      <c r="RM1"/>
+      <c r="RN1"/>
+      <c r="RO1"/>
+      <c r="RP1"/>
+      <c r="RQ1"/>
+      <c r="RR1"/>
+      <c r="RS1"/>
+      <c r="RT1"/>
+      <c r="RU1"/>
+      <c r="RV1"/>
+      <c r="RW1"/>
+      <c r="RX1"/>
+      <c r="RY1"/>
+      <c r="RZ1"/>
+      <c r="SA1"/>
+      <c r="SB1"/>
+      <c r="SC1"/>
+      <c r="SD1"/>
+      <c r="SE1"/>
+      <c r="SF1"/>
+      <c r="SG1"/>
+      <c r="SH1"/>
+      <c r="SI1"/>
+      <c r="SJ1"/>
+      <c r="SK1"/>
+      <c r="SL1"/>
+      <c r="SM1"/>
+      <c r="SN1"/>
+      <c r="SO1"/>
+      <c r="SP1"/>
+      <c r="SQ1"/>
+      <c r="SR1"/>
+      <c r="SS1"/>
+      <c r="ST1"/>
+      <c r="SU1"/>
+      <c r="SV1"/>
+      <c r="SW1"/>
+      <c r="SX1"/>
+      <c r="SY1"/>
+      <c r="SZ1"/>
+      <c r="TA1"/>
+      <c r="TB1"/>
+      <c r="TC1"/>
+      <c r="TD1"/>
+      <c r="TE1"/>
+      <c r="TF1"/>
+      <c r="TG1"/>
+      <c r="TH1"/>
+      <c r="TI1"/>
+      <c r="TJ1"/>
+      <c r="TK1"/>
+      <c r="TL1"/>
+      <c r="TM1"/>
+      <c r="TN1"/>
+      <c r="TO1"/>
+      <c r="TP1"/>
+      <c r="TQ1"/>
+      <c r="TR1"/>
+      <c r="TS1"/>
+      <c r="TT1"/>
+      <c r="TU1"/>
+      <c r="TV1"/>
+      <c r="TW1"/>
+      <c r="TX1"/>
+      <c r="TY1"/>
+      <c r="TZ1"/>
+      <c r="UA1"/>
+      <c r="UB1"/>
+      <c r="UC1"/>
+      <c r="UD1"/>
+      <c r="UE1"/>
+      <c r="UF1"/>
+      <c r="UG1"/>
+      <c r="UH1"/>
+      <c r="UI1"/>
+      <c r="UJ1"/>
+      <c r="UK1"/>
+      <c r="UL1"/>
+      <c r="UM1"/>
+      <c r="UN1"/>
+      <c r="UO1"/>
+      <c r="UP1"/>
+      <c r="UQ1"/>
+      <c r="UR1"/>
+      <c r="US1"/>
+      <c r="UT1"/>
+      <c r="UU1"/>
+      <c r="UV1"/>
+      <c r="UW1"/>
+      <c r="UX1"/>
+      <c r="UY1"/>
+      <c r="UZ1"/>
+      <c r="VA1"/>
+      <c r="VB1"/>
+      <c r="VC1"/>
+      <c r="VD1"/>
+      <c r="VE1"/>
+      <c r="VF1"/>
+      <c r="VG1"/>
+      <c r="VH1"/>
+      <c r="VI1"/>
+      <c r="VJ1"/>
+      <c r="VK1"/>
+      <c r="VL1"/>
+      <c r="VM1"/>
+      <c r="VN1"/>
+      <c r="VO1"/>
+      <c r="VP1"/>
+      <c r="VQ1"/>
+      <c r="VR1"/>
+      <c r="VS1"/>
+      <c r="VT1"/>
+      <c r="VU1"/>
+      <c r="VV1"/>
+      <c r="VW1"/>
+      <c r="VX1"/>
+      <c r="VY1"/>
+      <c r="VZ1"/>
+      <c r="WA1"/>
+      <c r="WB1"/>
+      <c r="WC1"/>
+      <c r="WD1"/>
+      <c r="WE1"/>
+      <c r="WF1"/>
+      <c r="WG1"/>
+      <c r="WH1"/>
+      <c r="WI1"/>
+      <c r="WJ1"/>
+      <c r="WK1"/>
+      <c r="WL1"/>
+      <c r="WM1"/>
+      <c r="WN1"/>
+      <c r="WO1"/>
+      <c r="WP1"/>
+      <c r="WQ1"/>
+      <c r="WR1"/>
+      <c r="WS1"/>
+      <c r="WT1"/>
+      <c r="WU1"/>
+      <c r="WV1"/>
+      <c r="WW1"/>
+      <c r="WX1"/>
+      <c r="WY1"/>
+      <c r="WZ1"/>
+      <c r="XA1"/>
+      <c r="XB1"/>
+      <c r="XC1"/>
+      <c r="XD1"/>
+      <c r="XE1"/>
+      <c r="XF1"/>
+      <c r="XG1"/>
+      <c r="XH1"/>
+      <c r="XI1"/>
+      <c r="XJ1"/>
+      <c r="XK1"/>
+      <c r="XL1"/>
+      <c r="XM1"/>
+      <c r="XN1"/>
+      <c r="XO1"/>
+      <c r="XP1"/>
+      <c r="XQ1"/>
+      <c r="XR1"/>
+      <c r="XS1"/>
+      <c r="XT1"/>
+      <c r="XU1"/>
+      <c r="XV1"/>
+      <c r="XW1"/>
+      <c r="XX1"/>
+      <c r="XY1"/>
+      <c r="XZ1"/>
+      <c r="YA1"/>
+      <c r="YB1"/>
+      <c r="YC1"/>
+      <c r="YD1"/>
+      <c r="YE1"/>
+      <c r="YF1"/>
+      <c r="YG1"/>
+      <c r="YH1"/>
+      <c r="YI1"/>
+      <c r="YJ1"/>
+      <c r="YK1"/>
+      <c r="YL1"/>
+      <c r="YM1"/>
+      <c r="YN1"/>
+      <c r="YO1"/>
+      <c r="YP1"/>
+      <c r="YQ1"/>
+      <c r="YR1"/>
+      <c r="YS1"/>
+      <c r="YT1"/>
+      <c r="YU1"/>
+      <c r="YV1"/>
+      <c r="YW1"/>
+      <c r="YX1"/>
+      <c r="YY1"/>
+      <c r="YZ1"/>
+      <c r="ZA1"/>
+      <c r="ZB1"/>
+      <c r="ZC1"/>
+      <c r="ZD1"/>
+      <c r="ZE1"/>
+      <c r="ZF1"/>
+      <c r="ZG1"/>
+      <c r="ZH1"/>
+      <c r="ZI1"/>
+      <c r="ZJ1"/>
+      <c r="ZK1"/>
+      <c r="ZL1"/>
+      <c r="ZM1"/>
+      <c r="ZN1"/>
+      <c r="ZO1"/>
+      <c r="ZP1"/>
+      <c r="ZQ1"/>
+      <c r="ZR1"/>
+      <c r="ZS1"/>
+      <c r="ZT1"/>
+      <c r="ZU1"/>
+      <c r="ZV1"/>
+      <c r="ZW1"/>
+      <c r="ZX1"/>
+      <c r="ZY1"/>
+      <c r="ZZ1"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2" s="4"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
+      <c r="UN2"/>
+      <c r="UO2"/>
+      <c r="UP2"/>
+      <c r="UQ2"/>
+      <c r="UR2"/>
+      <c r="US2"/>
+      <c r="UT2"/>
+      <c r="UU2"/>
+      <c r="UV2"/>
+      <c r="UW2"/>
+      <c r="UX2"/>
+      <c r="UY2"/>
+      <c r="UZ2"/>
+      <c r="VA2"/>
+      <c r="VB2"/>
+      <c r="VC2"/>
+      <c r="VD2"/>
+      <c r="VE2"/>
+      <c r="VF2"/>
+      <c r="VG2"/>
+      <c r="VH2"/>
+      <c r="VI2"/>
+      <c r="VJ2"/>
+      <c r="VK2"/>
+      <c r="VL2"/>
+      <c r="VM2"/>
+      <c r="VN2"/>
+      <c r="VO2"/>
+      <c r="VP2"/>
+      <c r="VQ2"/>
+      <c r="VR2"/>
+      <c r="VS2"/>
+      <c r="VT2"/>
+      <c r="VU2"/>
+      <c r="VV2"/>
+      <c r="VW2"/>
+      <c r="VX2"/>
+      <c r="VY2"/>
+      <c r="VZ2"/>
+      <c r="WA2"/>
+      <c r="WB2"/>
+      <c r="WC2"/>
+      <c r="WD2"/>
+      <c r="WE2"/>
+      <c r="WF2"/>
+      <c r="WG2"/>
+      <c r="WH2"/>
+      <c r="WI2"/>
+      <c r="WJ2"/>
+      <c r="WK2"/>
+      <c r="WL2"/>
+      <c r="WM2"/>
+      <c r="WN2"/>
+      <c r="WO2"/>
+      <c r="WP2"/>
+      <c r="WQ2"/>
+      <c r="WR2"/>
+      <c r="WS2"/>
+      <c r="WT2"/>
+      <c r="WU2"/>
+      <c r="WV2"/>
+      <c r="WW2"/>
+      <c r="WX2"/>
+      <c r="WY2"/>
+      <c r="WZ2"/>
+      <c r="XA2"/>
+      <c r="XB2"/>
+      <c r="XC2"/>
+      <c r="XD2"/>
+      <c r="XE2"/>
+      <c r="XF2"/>
+      <c r="XG2"/>
+      <c r="XH2"/>
+      <c r="XI2"/>
+      <c r="XJ2"/>
+      <c r="XK2"/>
+      <c r="XL2"/>
+      <c r="XM2"/>
+      <c r="XN2"/>
+      <c r="XO2"/>
+      <c r="XP2"/>
+      <c r="XQ2"/>
+      <c r="XR2"/>
+      <c r="XS2"/>
+      <c r="XT2"/>
+      <c r="XU2"/>
+      <c r="XV2"/>
+      <c r="XW2"/>
+      <c r="XX2"/>
+      <c r="XY2"/>
+      <c r="XZ2"/>
+      <c r="YA2"/>
+      <c r="YB2"/>
+      <c r="YC2"/>
+      <c r="YD2"/>
+      <c r="YE2"/>
+      <c r="YF2"/>
+      <c r="YG2"/>
+      <c r="YH2"/>
+      <c r="YI2"/>
+      <c r="YJ2"/>
+      <c r="YK2"/>
+      <c r="YL2"/>
+      <c r="YM2"/>
+      <c r="YN2"/>
+      <c r="YO2"/>
+      <c r="YP2"/>
+      <c r="YQ2"/>
+      <c r="YR2"/>
+      <c r="YS2"/>
+      <c r="YT2"/>
+      <c r="YU2"/>
+      <c r="YV2"/>
+      <c r="YW2"/>
+      <c r="YX2"/>
+      <c r="YY2"/>
+      <c r="YZ2"/>
+      <c r="ZA2"/>
+      <c r="ZB2"/>
+      <c r="ZC2"/>
+      <c r="ZD2"/>
+      <c r="ZE2"/>
+      <c r="ZF2"/>
+      <c r="ZG2"/>
+      <c r="ZH2"/>
+      <c r="ZI2"/>
+      <c r="ZJ2"/>
+      <c r="ZK2"/>
+      <c r="ZL2"/>
+      <c r="ZM2"/>
+      <c r="ZN2"/>
+      <c r="ZO2"/>
+      <c r="ZP2"/>
+      <c r="ZQ2"/>
+      <c r="ZR2"/>
+      <c r="ZS2"/>
+      <c r="ZT2"/>
+      <c r="ZU2"/>
+      <c r="ZV2"/>
+      <c r="ZW2"/>
+      <c r="ZX2"/>
+      <c r="ZY2"/>
+      <c r="ZZ2"/>
+      <c r="AAA2" s="5"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A2 A4:A1048576">
+    <cfRule type="beginsWith" dxfId="11" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B1048576 B1:B3">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="12">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(B6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/rdbms-03.data.xlsx
+++ b/artifact/data/rdbms-03.data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10422"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AC842C-B373-DC49-BDB5-9B5A56990B82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A578CA-01AB-4B45-8C01-7A4D54352E5D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="440" windowWidth="20480" windowHeight="25160" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="440" windowWidth="20480" windowHeight="12580" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>true</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>track name,composer,customer name</t>
+  </si>
+  <si>
+    <t>ALBUMS.compareExt.ignore</t>
+  </si>
+  <si>
+    <t>composer,unit price,quantity</t>
   </si>
 </sst>
 </file>
@@ -27346,7 +27352,7 @@
   <dimension ref="A1:AAA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -28919,8 +28925,12 @@
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3">
